--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_connection_point_test_ni_connection_point_remote_system_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_connection_point_test_ni_connection_point_remote_system_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:fe0059d4-a911-4141-8039-af1e2b259ae5"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:25670546-139a-4c93-978b-3f5803f5e4f5"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
